--- a/Macro_Chartist/Chart_templates/US and Global Monetary Aggregates.xlsx
+++ b/Macro_Chartist/Chart_templates/US and Global Monetary Aggregates.xlsx
@@ -97,7 +97,7 @@
     <t>Template</t>
   </si>
   <si>
-    <t>Long27_GM2</t>
+    <t>M2_top33</t>
   </si>
   <si>
     <t>MABMM301USM189S</t>
@@ -133,7 +133,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>China M2 proxies?.xlsx</t>
+    <t>Financial conditions &amp; employment, US.xlsx</t>
   </si>
   <si>
     <t>load</t>
